--- a/Material de Acompanhamento_v3.xlsx
+++ b/Material de Acompanhamento_v3.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u100054\Desktop\aprendizado\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Empreendedor\Aulas Excel Basico\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9630" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9630" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="19 " sheetId="2" r:id="rId1"/>
@@ -25,6 +25,7 @@
     <sheet name="36" sheetId="8" r:id="rId11"/>
     <sheet name="37" sheetId="9" r:id="rId12"/>
     <sheet name="41" sheetId="14" r:id="rId13"/>
+    <sheet name="43" sheetId="15" r:id="rId14"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="126">
   <si>
     <t>Lista de Compras</t>
   </si>
@@ -404,7 +405,16 @@
     <t xml:space="preserve"> - Fazer um exemplo de COMISSÃO</t>
   </si>
   <si>
-    <t xml:space="preserve"> - Fazer um exemplo de Busca Venda Mês a mês</t>
+    <t xml:space="preserve"> - Fazer um exemplo de Busca Venda Mês a mês (usar referencia celula ao inves de numeroda coluna)</t>
+  </si>
+  <si>
+    <t>Baixar planilha do Totus que esta organizado por data e classfiicar por valor para descobrir a maior NF</t>
+  </si>
+  <si>
+    <t>Depois classficair lançamento por Data</t>
+  </si>
+  <si>
+    <t>usar em conjunto com Criar lista persolizada de empresa</t>
   </si>
 </sst>
 </file>
@@ -412,9 +422,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
-    <numFmt numFmtId="165" formatCode="0.0%"/>
-    <numFmt numFmtId="166" formatCode="##,###,###,#\-##"/>
-    <numFmt numFmtId="167" formatCode="00000000000"/>
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+    <numFmt numFmtId="165" formatCode="##,###,###,#\-##"/>
+    <numFmt numFmtId="166" formatCode="00000000000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -462,15 +472,15 @@
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="45" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1023,8 +1033,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1068,6 +1078,41 @@
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>122</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:B6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -1628,7 +1673,7 @@
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" s="13">
         <f ca="1">NOW()</f>
-        <v>43392.784256597224</v>
+        <v>43398.974946643517</v>
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">

--- a/Material de Acompanhamento_v3.xlsx
+++ b/Material de Acompanhamento_v3.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9630"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9630" tabRatio="673" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="geral" sheetId="17" r:id="rId1"/>
@@ -17,15 +17,15 @@
     <sheet name="22" sheetId="2" r:id="rId3"/>
     <sheet name="23" sheetId="4" r:id="rId4"/>
     <sheet name="24" sheetId="3" r:id="rId5"/>
-    <sheet name="27" sheetId="10" r:id="rId6"/>
-    <sheet name="28" sheetId="11" r:id="rId7"/>
-    <sheet name="29" sheetId="12" r:id="rId8"/>
-    <sheet name="30" sheetId="13" r:id="rId9"/>
-    <sheet name="32" sheetId="6" r:id="rId10"/>
-    <sheet name="34" sheetId="5" r:id="rId11"/>
-    <sheet name="36" sheetId="7" r:id="rId12"/>
-    <sheet name="39" sheetId="8" r:id="rId13"/>
-    <sheet name="40" sheetId="9" r:id="rId14"/>
+    <sheet name="28 " sheetId="10" r:id="rId6"/>
+    <sheet name="29" sheetId="12" r:id="rId7"/>
+    <sheet name="30" sheetId="11" r:id="rId8"/>
+    <sheet name="31" sheetId="13" r:id="rId9"/>
+    <sheet name="33" sheetId="6" r:id="rId10"/>
+    <sheet name="35" sheetId="5" r:id="rId11"/>
+    <sheet name="37" sheetId="7" r:id="rId12"/>
+    <sheet name="40 " sheetId="8" r:id="rId13"/>
+    <sheet name="41" sheetId="9" r:id="rId14"/>
     <sheet name="44" sheetId="14" r:id="rId15"/>
     <sheet name="46" sheetId="15" r:id="rId16"/>
   </sheets>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="174">
   <si>
     <t>Lista de Compras</t>
   </si>
@@ -134,9 +134,6 @@
     <t>Real</t>
   </si>
   <si>
-    <t>Preço Moeda</t>
-  </si>
-  <si>
     <t>Fazer junto</t>
   </si>
   <si>
@@ -173,9 +170,6 @@
     <t>Outubro</t>
   </si>
   <si>
-    <t>Ctrl + Enter</t>
-  </si>
-  <si>
     <t>Nome:</t>
   </si>
   <si>
@@ -275,9 +269,6 @@
     <t>Calulo percentual</t>
   </si>
   <si>
-    <t>Ordem de calculo emnter parentesis</t>
-  </si>
-  <si>
     <t>Preço Unitario US$</t>
   </si>
   <si>
@@ -305,24 +296,12 @@
     <t>Ano mês</t>
   </si>
   <si>
-    <t>fazer uma de media no grafico</t>
-  </si>
-  <si>
-    <t>Perid para eles fazerem um com de numero</t>
-  </si>
-  <si>
     <t>Perguntar e dar 10 minutos para tentarem descobrir o porque ele plota estes numeros.</t>
   </si>
   <si>
-    <t>Criação de Arquivo por Dia da Semana ou Ano Mês...fazer um DRE</t>
-  </si>
-  <si>
     <t>fazer junto</t>
   </si>
   <si>
-    <t>Fazer um DRE com eles</t>
-  </si>
-  <si>
     <t>fazer um arquivo consolidado de Ano, ou trimestre</t>
   </si>
   <si>
@@ -398,9 +377,6 @@
     <t>DATADIF</t>
   </si>
   <si>
-    <t>Formatar o DRE e somente depois conar planilhas</t>
-  </si>
-  <si>
     <t xml:space="preserve"> - Explicar a busca em Intervalo</t>
   </si>
   <si>
@@ -482,7 +458,134 @@
     <t>Sistema de Coordendas</t>
   </si>
   <si>
-    <t>Explicar a COR e marcação</t>
+    <t>falar do Ctrl x Shift</t>
+  </si>
+  <si>
+    <t>Ordem de calculo entre parentesis</t>
+  </si>
+  <si>
+    <t>Explicar a COR e marcação das referencias das foirmulas - a parte visual</t>
+  </si>
+  <si>
+    <t>Atv 1</t>
+  </si>
+  <si>
+    <t>Atv 2</t>
+  </si>
+  <si>
+    <t>Correção</t>
+  </si>
+  <si>
+    <t>MEDIA</t>
+  </si>
+  <si>
+    <t>Slide abre forncedores e errros</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Fazer um DRE com eles </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NÂO FORMATAR</t>
+    </r>
+  </si>
+  <si>
+    <t>Ocultar Forn. Exlcuir Forn</t>
+  </si>
+  <si>
+    <t>Almoço</t>
+  </si>
+  <si>
+    <t>Formatação de COR</t>
+  </si>
+  <si>
+    <t>Atv 3</t>
+  </si>
+  <si>
+    <t>Abrir Corrreção TABELA</t>
+  </si>
+  <si>
+    <t>Mostar PINCEL</t>
+  </si>
+  <si>
+    <t>Formataçao de Numero</t>
+  </si>
+  <si>
+    <t>Atv3</t>
+  </si>
+  <si>
+    <t>Comentarios, construir Presidenciaveis</t>
+  </si>
+  <si>
+    <t>Atv 4</t>
+  </si>
+  <si>
+    <t>Exemplificar com Graficos</t>
+  </si>
+  <si>
+    <t>Equação da Reta</t>
+  </si>
+  <si>
+    <t>Auto Preencher</t>
+  </si>
+  <si>
+    <t>Auto preencher atividade</t>
+  </si>
+  <si>
+    <t>Correção atividade - Grafico</t>
+  </si>
+  <si>
+    <t>Pedir para eles fazerem um com de numero</t>
+  </si>
+  <si>
+    <t>Atv 5</t>
+  </si>
+  <si>
+    <t>Copiar DRE e Planilhas</t>
+  </si>
+  <si>
+    <t>COPIAR DRE antes de formatar.....dai mostrar o erro&gt;&gt;&gt;&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ---Primeiro formatamos e DEPOIS COPIAMOS</t>
+  </si>
+  <si>
+    <t>USAR DRE da lição anterior</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Criação de Arquivo por Ano Mês...fazer um DRE. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NÃO FAZER CONSOLIDADO</t>
+    </r>
+  </si>
+  <si>
+    <t>Mostar Fomula TRIDIMENSIONAL</t>
+  </si>
+  <si>
+    <t>perguntar para eles o que acha que acontece se ELIMINAR O MÊS DO MEIO???? ...e se inserir</t>
+  </si>
+  <si>
+    <t>Atv</t>
+  </si>
+  <si>
+    <t>Duração</t>
   </si>
 </sst>
 </file>
@@ -494,7 +597,7 @@
     <numFmt numFmtId="165" formatCode="##,###,###,#\-##"/>
     <numFmt numFmtId="166" formatCode="00000000000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -510,8 +613,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -530,6 +648,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -543,7 +673,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -560,6 +690,8 @@
     <xf numFmtId="45" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -840,90 +972,104 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:H17"/>
+  <dimension ref="A2:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="4" max="4" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="32.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.5703125" style="15" customWidth="1"/>
     <col min="7" max="7" width="50.85546875" style="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F2" s="15" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>173</v>
+      </c>
       <c r="B3" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="C3" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="D3" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="E3" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="H3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="12">
+        <v>6.9444444444444753E-3</v>
+      </c>
       <c r="B4" s="12">
-        <v>0.34027777777777773</v>
+        <v>0.38194444444444442</v>
       </c>
       <c r="C4" s="12">
-        <v>0.34722222222222227</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="D4" s="12">
         <f>C4-B4</f>
-        <v>6.9444444444445308E-3</v>
+        <v>6.9444444444444753E-3</v>
       </c>
       <c r="E4" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="12">
+        <v>6.9444444444444198E-3</v>
+      </c>
       <c r="B5" s="12">
-        <v>0.34722222222222227</v>
+        <f>C4</f>
+        <v>0.3888888888888889</v>
       </c>
       <c r="C5" s="12">
-        <v>0.35416666666666669</v>
+        <v>0.39583333333333331</v>
       </c>
       <c r="D5" s="12">
-        <f t="shared" ref="D5:D17" si="0">C5-B5</f>
+        <f t="shared" ref="D5:D19" si="0">C5-B5</f>
         <v>6.9444444444444198E-3</v>
       </c>
       <c r="E5" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="H5" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="12">
+        <v>1.3888888888888951E-2</v>
+      </c>
       <c r="B6" s="12">
-        <v>0.35416666666666669</v>
+        <v>0.39583333333333331</v>
       </c>
       <c r="C6" s="12">
-        <v>0.36458333333333331</v>
+        <v>0.40972222222222227</v>
       </c>
       <c r="D6" s="12">
         <f t="shared" si="0"/>
-        <v>1.041666666666663E-2</v>
+        <v>1.3888888888888951E-2</v>
       </c>
       <c r="E6" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="F6" s="15">
         <v>10</v>
@@ -932,22 +1078,25 @@
         <v>16</v>
       </c>
       <c r="H6" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="12">
+        <v>6.9444444444444198E-3</v>
+      </c>
       <c r="B7" s="12">
-        <v>0.36458333333333331</v>
+        <v>0.40972222222222227</v>
       </c>
       <c r="C7" s="12">
-        <v>0.375</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="D7" s="12">
         <f t="shared" si="0"/>
-        <v>1.0416666666666685E-2</v>
+        <v>6.9444444444444198E-3</v>
       </c>
       <c r="E7" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="F7" s="15">
         <v>17</v>
@@ -956,19 +1105,22 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="12">
+        <v>6.9444444444444198E-3</v>
+      </c>
       <c r="B8" s="12">
-        <v>0.38194444444444442</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="C8" s="12">
-        <v>0.3888888888888889</v>
+        <v>0.4236111111111111</v>
       </c>
       <c r="D8" s="12">
         <f t="shared" si="0"/>
-        <v>6.9444444444444753E-3</v>
+        <v>6.9444444444444198E-3</v>
       </c>
       <c r="E8" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="F8" s="15">
         <v>22</v>
@@ -977,19 +1129,22 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="12">
+        <v>6.9444444444444753E-3</v>
+      </c>
       <c r="B9" s="12">
-        <v>0.3888888888888889</v>
+        <v>0.4236111111111111</v>
       </c>
       <c r="C9" s="12">
-        <v>0.3923611111111111</v>
+        <v>0.43055555555555558</v>
       </c>
       <c r="D9" s="12">
         <f t="shared" si="0"/>
-        <v>3.4722222222222099E-3</v>
+        <v>6.9444444444444753E-3</v>
       </c>
       <c r="E9" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="F9" s="15">
         <v>23</v>
@@ -998,19 +1153,22 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="12">
+        <v>1.388888888888884E-2</v>
+      </c>
       <c r="B10" s="12">
-        <v>0.3923611111111111</v>
+        <v>0.43055555555555558</v>
       </c>
       <c r="C10" s="12">
-        <v>0.40277777777777773</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="D10" s="12">
         <f t="shared" si="0"/>
-        <v>1.041666666666663E-2</v>
+        <v>1.388888888888884E-2</v>
       </c>
       <c r="E10" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="F10" s="15">
         <v>24</v>
@@ -1019,52 +1177,593 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="12">
+        <v>1.3888888888888895E-2</v>
+      </c>
       <c r="B11" s="12">
-        <v>0.40277777777777773</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="C11" s="12">
-        <v>0.41666666666666669</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="D11" s="12">
         <f t="shared" si="0"/>
-        <v>1.3888888888888951E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+        <v>1.3888888888888895E-2</v>
+      </c>
+      <c r="E11" t="s">
+        <v>142</v>
+      </c>
+      <c r="F11" s="15">
+        <v>25</v>
+      </c>
+      <c r="G11" s="15">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="12">
+        <v>6.9444444444444198E-3</v>
+      </c>
+      <c r="B12" s="12">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C12" s="12">
+        <v>0.46527777777777773</v>
+      </c>
       <c r="D12" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+        <v>6.9444444444444198E-3</v>
+      </c>
+      <c r="E12" t="s">
+        <v>144</v>
+      </c>
+      <c r="F12" s="15">
+        <v>25</v>
+      </c>
+      <c r="G12" s="15">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="12">
+        <v>1.0416666666666685E-2</v>
+      </c>
+      <c r="B13" s="12">
+        <v>0.46527777777777773</v>
+      </c>
+      <c r="C13" s="12">
+        <v>0.47569444444444442</v>
+      </c>
       <c r="D13" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+        <f t="shared" ref="D13" si="1">C13-B13</f>
+        <v>1.0416666666666685E-2</v>
+      </c>
+      <c r="E13" t="s">
+        <v>143</v>
+      </c>
+      <c r="F13" s="15">
+        <v>26</v>
+      </c>
+      <c r="G13" s="15">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="12">
+        <v>6.9444444444444753E-3</v>
+      </c>
+      <c r="B14" s="12">
+        <f>C13</f>
+        <v>0.47569444444444442</v>
+      </c>
+      <c r="C14" s="12">
+        <v>0.4826388888888889</v>
+      </c>
       <c r="D14" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+        <v>6.9444444444444753E-3</v>
+      </c>
+      <c r="E14" t="s">
+        <v>144</v>
+      </c>
+      <c r="F14" s="15">
+        <v>26</v>
+      </c>
+      <c r="G14" s="15">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="12">
+        <v>2.4305555555555525E-2</v>
+      </c>
+      <c r="B15" s="12">
+        <v>0.4826388888888889</v>
+      </c>
+      <c r="C15" s="12">
+        <v>0.50694444444444442</v>
+      </c>
       <c r="D15" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+        <v>2.4305555555555525E-2</v>
+      </c>
+      <c r="E15" t="s">
+        <v>146</v>
+      </c>
+      <c r="F15" s="15">
+        <v>28</v>
+      </c>
+      <c r="G15" s="15">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="12">
+        <v>3.4722222222222099E-3</v>
+      </c>
+      <c r="B16" s="12">
+        <v>0.50694444444444442</v>
+      </c>
+      <c r="C16" s="12">
+        <v>0.51041666666666663</v>
+      </c>
       <c r="D16" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
+        <v>3.4722222222222099E-3</v>
+      </c>
+      <c r="E16" t="s">
+        <v>148</v>
+      </c>
+      <c r="F16" s="15">
+        <v>30</v>
+      </c>
+      <c r="G16" s="15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="12">
+        <v>5.208333333333337E-2</v>
+      </c>
+      <c r="B17" s="12">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="C17" s="12">
+        <v>0.5625</v>
+      </c>
       <c r="D17" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5.208333333333337E-2</v>
+      </c>
+      <c r="E17" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="12">
+        <v>6.9444444444444198E-3</v>
+      </c>
+      <c r="B18" s="12">
+        <v>0.5625</v>
+      </c>
+      <c r="C18" s="12">
+        <v>0.56944444444444442</v>
+      </c>
+      <c r="D18" s="12">
+        <f t="shared" si="0"/>
+        <v>6.9444444444444198E-3</v>
+      </c>
+      <c r="E18" t="s">
+        <v>150</v>
+      </c>
+      <c r="F18" s="15">
+        <v>31</v>
+      </c>
+      <c r="G18" s="15">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="12">
+        <v>1.041666666666663E-2</v>
+      </c>
+      <c r="B19" s="12">
+        <v>0.56944444444444442</v>
+      </c>
+      <c r="C19" s="12">
+        <v>0.57986111111111105</v>
+      </c>
+      <c r="D19" s="12">
+        <f t="shared" si="0"/>
+        <v>1.041666666666663E-2</v>
+      </c>
+      <c r="E19" t="s">
+        <v>151</v>
+      </c>
+      <c r="F19" s="15">
+        <v>32</v>
+      </c>
+      <c r="G19" s="15">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="12">
+        <v>3.4722222222223209E-3</v>
+      </c>
+      <c r="B20" s="12">
+        <v>0.57986111111111105</v>
+      </c>
+      <c r="C20" s="12">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D20" s="12">
+        <f t="shared" ref="D20:D21" si="2">C20-B20</f>
+        <v>3.4722222222223209E-3</v>
+      </c>
+      <c r="E20" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="12">
+        <v>6.9444444444444198E-3</v>
+      </c>
+      <c r="B21" s="12">
+        <v>0.59027777777777779</v>
+      </c>
+      <c r="C21" s="12">
+        <v>0.59722222222222221</v>
+      </c>
+      <c r="D21" s="12">
+        <f t="shared" si="2"/>
+        <v>6.9444444444444198E-3</v>
+      </c>
+      <c r="E21" t="s">
+        <v>154</v>
+      </c>
+      <c r="F21" s="15">
+        <v>33</v>
+      </c>
+      <c r="G21" s="15">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="12">
+        <v>1.388888888888884E-2</v>
+      </c>
+      <c r="B22" s="12">
+        <v>0.59722222222222221</v>
+      </c>
+      <c r="C22" s="12">
+        <v>0.61111111111111105</v>
+      </c>
+      <c r="D22" s="12">
+        <f t="shared" ref="D22" si="3">C22-B22</f>
+        <v>1.388888888888884E-2</v>
+      </c>
+      <c r="E22" t="s">
+        <v>155</v>
+      </c>
+      <c r="F22" s="15">
+        <v>34</v>
+      </c>
+      <c r="G22" s="15">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="12">
+        <v>6.9444444444445308E-3</v>
+      </c>
+      <c r="B23" s="12">
+        <v>0.61111111111111105</v>
+      </c>
+      <c r="C23" s="12">
+        <v>0.61805555555555558</v>
+      </c>
+      <c r="D23" s="12">
+        <f t="shared" ref="D23:D24" si="4">C23-B23</f>
+        <v>6.9444444444445308E-3</v>
+      </c>
+      <c r="E23" t="s">
+        <v>144</v>
+      </c>
+      <c r="F23" s="15">
+        <v>34</v>
+      </c>
+      <c r="G23" s="15">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="12">
+        <v>1.388888888888884E-2</v>
+      </c>
+      <c r="B24" s="12">
+        <v>0.61805555555555558</v>
+      </c>
+      <c r="C24" s="12">
+        <v>0.63194444444444442</v>
+      </c>
+      <c r="D24" s="12">
+        <f t="shared" si="4"/>
+        <v>1.388888888888884E-2</v>
+      </c>
+      <c r="E24" t="s">
+        <v>156</v>
+      </c>
+      <c r="F24" s="15">
+        <v>35</v>
+      </c>
+      <c r="G24" s="15">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="12">
+        <v>2.083333333333337E-2</v>
+      </c>
+      <c r="B25" s="12">
+        <v>0.63194444444444442</v>
+      </c>
+      <c r="C25" s="12">
+        <v>0.65277777777777779</v>
+      </c>
+      <c r="D25" s="12">
+        <f t="shared" ref="D25" si="5">C25-B25</f>
+        <v>2.083333333333337E-2</v>
+      </c>
+      <c r="E25" t="s">
+        <v>157</v>
+      </c>
+      <c r="F25" s="15">
+        <v>36</v>
+      </c>
+      <c r="G25" s="15">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="12">
+        <v>6.9444444444444198E-3</v>
+      </c>
+      <c r="B26" s="12">
+        <v>0.65277777777777779</v>
+      </c>
+      <c r="C26" s="12">
+        <v>0.65972222222222221</v>
+      </c>
+      <c r="D26" s="12">
+        <f t="shared" ref="D26:D28" si="6">C26-B26</f>
+        <v>6.9444444444444198E-3</v>
+      </c>
+      <c r="E26" t="s">
+        <v>144</v>
+      </c>
+      <c r="F26" s="15">
+        <v>36</v>
+      </c>
+      <c r="G26" s="15">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="12">
+        <v>6.9444444444444198E-3</v>
+      </c>
+      <c r="B27" s="12">
+        <v>0.65972222222222221</v>
+      </c>
+      <c r="C27" s="12">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D27" s="12">
+        <f t="shared" si="6"/>
+        <v>6.9444444444444198E-3</v>
+      </c>
+      <c r="E27" t="s">
+        <v>160</v>
+      </c>
+      <c r="F27" s="15">
+        <v>37</v>
+      </c>
+      <c r="G27" s="15">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="12">
+        <v>6.9444444444445308E-3</v>
+      </c>
+      <c r="B28" s="12">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C28" s="12">
+        <v>0.67361111111111116</v>
+      </c>
+      <c r="D28" s="12">
+        <f t="shared" si="6"/>
+        <v>6.9444444444445308E-3</v>
+      </c>
+      <c r="E28" t="s">
+        <v>161</v>
+      </c>
+      <c r="F28" s="15">
+        <v>37</v>
+      </c>
+      <c r="G28" s="15">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="12">
+        <v>1.041666666666663E-2</v>
+      </c>
+      <c r="B29" s="12">
+        <v>0.67361111111111116</v>
+      </c>
+      <c r="C29" s="12">
+        <v>0.68402777777777779</v>
+      </c>
+      <c r="D29" s="12">
+        <f t="shared" ref="D29" si="7">C29-B29</f>
+        <v>1.041666666666663E-2</v>
+      </c>
+      <c r="E29" t="s">
+        <v>162</v>
+      </c>
+      <c r="F29" s="15">
+        <v>37</v>
+      </c>
+      <c r="G29" s="15">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="12">
+        <v>1.7361111111111049E-2</v>
+      </c>
+      <c r="B30" s="12">
+        <v>0.68402777777777779</v>
+      </c>
+      <c r="C30" s="12">
+        <v>0.70138888888888884</v>
+      </c>
+      <c r="D30" s="12">
+        <f t="shared" ref="D30" si="8">C30-B30</f>
+        <v>1.7361111111111049E-2</v>
+      </c>
+      <c r="E30" t="s">
+        <v>164</v>
+      </c>
+      <c r="F30" s="15">
+        <v>38</v>
+      </c>
+      <c r="G30" s="15">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="12">
+        <v>6.9444444444445308E-3</v>
+      </c>
+      <c r="B31" s="12">
+        <v>0.70138888888888884</v>
+      </c>
+      <c r="C31" s="12">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D31" s="12">
+        <f t="shared" ref="D31" si="9">C31-B31</f>
+        <v>6.9444444444445308E-3</v>
+      </c>
+      <c r="E31" t="s">
+        <v>144</v>
+      </c>
+      <c r="F31" s="15">
+        <v>38</v>
+      </c>
+      <c r="G31" s="15">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="12">
+        <v>6.9444444444444198E-3</v>
+      </c>
+      <c r="B32" s="12">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C32" s="12">
+        <v>0.71527777777777779</v>
+      </c>
+      <c r="D32" s="12">
+        <f t="shared" ref="D32:D33" si="10">C32-B32</f>
+        <v>6.9444444444444198E-3</v>
+      </c>
+      <c r="E32" t="s">
+        <v>165</v>
+      </c>
+      <c r="F32" s="15">
+        <v>40</v>
+      </c>
+      <c r="G32" s="15">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="12">
+        <v>6.9444444444444198E-3</v>
+      </c>
+      <c r="B33" s="12">
+        <v>0.71527777777777779</v>
+      </c>
+      <c r="C33" s="12">
+        <v>0.72222222222222221</v>
+      </c>
+      <c r="D33" s="12">
+        <f t="shared" si="10"/>
+        <v>6.9444444444444198E-3</v>
+      </c>
+      <c r="E33" t="s">
+        <v>170</v>
+      </c>
+      <c r="F33" s="15">
+        <v>41</v>
+      </c>
+      <c r="G33" s="15">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="12">
+        <v>2.0833333333333259E-2</v>
+      </c>
+      <c r="B34" s="12">
+        <v>0.72222222222222221</v>
+      </c>
+      <c r="C34" s="12">
+        <v>0.74305555555555547</v>
+      </c>
+      <c r="D34" s="12">
+        <f t="shared" ref="D34:D35" si="11">C34-B34</f>
+        <v>2.0833333333333259E-2</v>
+      </c>
+      <c r="E34" t="s">
+        <v>172</v>
+      </c>
+      <c r="F34" s="15">
+        <v>42</v>
+      </c>
+      <c r="G34" s="15">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="12">
+        <v>6.9444444444445308E-3</v>
+      </c>
+      <c r="B35" s="12">
+        <v>0.74305555555555547</v>
+      </c>
+      <c r="C35" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="D35" s="12">
+        <f t="shared" si="11"/>
+        <v>6.9444444444445308E-3</v>
+      </c>
+      <c r="E35" t="s">
+        <v>144</v>
+      </c>
+      <c r="F35" s="15">
+        <v>42</v>
+      </c>
+      <c r="G35" s="15">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1074,55 +1773,68 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G10"/>
+  <dimension ref="B1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B2" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="G2" s="12">
+    <row r="1" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="F1" s="14"/>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="G3" s="12">
         <v>0.5625</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>81</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>12</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>84</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>85</v>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -1135,7 +1847,7 @@
   <dimension ref="B2:F29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1149,7 +1861,7 @@
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F2" s="12">
         <v>0.58333333333333337</v>
@@ -1167,71 +1879,71 @@
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C11" s="7">
         <v>31109</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C12" s="8">
         <f ca="1">DATEDIF(C11,TODAY(),"Y")</f>
         <v>33</v>
       </c>
       <c r="D12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D14" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D16" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C19" s="7">
         <v>11304</v>
       </c>
       <c r="D19" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E19">
         <v>9963251892</v>
@@ -1239,13 +1951,13 @@
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C20" s="7">
         <v>20169</v>
       </c>
       <c r="D20" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E20" s="10">
         <v>32356489711</v>
@@ -1254,13 +1966,13 @@
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C21" s="7">
         <v>19305</v>
       </c>
       <c r="D21" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E21">
         <v>25249863710</v>
@@ -1268,13 +1980,13 @@
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C22" s="7">
         <v>21224</v>
       </c>
       <c r="D22" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E22">
         <v>56987413215</v>
@@ -1282,13 +1994,13 @@
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C23" s="7">
         <v>21130</v>
       </c>
       <c r="D23" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E23">
         <v>58598745874</v>
@@ -1296,13 +2008,13 @@
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C24" s="7">
         <v>22941</v>
       </c>
       <c r="D24" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E24">
         <v>58598747411</v>
@@ -1310,13 +2022,13 @@
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C25" s="7">
         <v>16680</v>
       </c>
       <c r="D25" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E25">
         <v>2135896578</v>
@@ -1324,13 +2036,13 @@
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C26" s="7">
         <v>27849</v>
       </c>
       <c r="D26" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E26">
         <v>85968749865</v>
@@ -1338,13 +2050,13 @@
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C27" s="7">
         <v>23036</v>
       </c>
       <c r="D27" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E27">
         <v>87895483125</v>
@@ -1352,7 +2064,7 @@
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B29" s="4" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -1362,20 +2074,23 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:K22"/>
+  <dimension ref="B2:K30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="27" width="6.140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="K2" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.25">
@@ -1384,28 +2099,27 @@
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>86</v>
-      </c>
+      <c r="B4" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>89</v>
+        <v>163</v>
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>90</v>
+      <c r="B12" s="3" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
@@ -1428,35 +2142,55 @@
         <v>9.6666666666666696</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>12.6666666666667</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>15.6666666666667</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>18.6666666666667</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>21.6666666666667</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>24.6666666666667</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>27.6666666666667</v>
       </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B25" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -1465,33 +2199,41 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I4"/>
+  <dimension ref="B2:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="I2" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>91</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>119</v>
+        <v>166</v>
       </c>
       <c r="I4" s="12">
         <v>0.65972222222222221</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="6" t="s">
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -1501,17 +2243,17 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I3"/>
+  <dimension ref="B2:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="I2">
         <v>15</v>
@@ -1519,10 +2261,20 @@
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="I3" s="12">
         <v>0.67361111111111116</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -1535,7 +2287,7 @@
   <dimension ref="B2:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1545,7 +2297,7 @@
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -1553,32 +2305,32 @@
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" s="6" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -1590,30 +2342,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -1626,19 +2378,19 @@
   <dimension ref="B4:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" s="14" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="C6" s="14"/>
       <c r="D6" s="14"/>
@@ -1648,17 +2400,17 @@
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -1671,7 +2423,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1679,11 +2431,12 @@
     <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.5703125" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F1" s="12">
         <v>0.40972222222222227</v>
@@ -1696,8 +2449,8 @@
       <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>44</v>
+      <c r="D3" s="3" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1772,10 +2525,13 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="65" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -1786,7 +2542,7 @@
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
@@ -1795,24 +2551,24 @@
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" s="11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C6" s="11"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>78</v>
+        <v>140</v>
       </c>
       <c r="C7" s="11"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
-        <v>93</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -1822,22 +2578,22 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:Q21"/>
+  <dimension ref="B1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.28515625" customWidth="1"/>
     <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q1" s="12">
         <v>0.43055555555555558</v>
@@ -1845,7 +2601,7 @@
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -1878,7 +2634,7 @@
         <v>27</v>
       </c>
       <c r="N4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O4" t="s">
         <v>28</v>
@@ -1935,9 +2691,6 @@
       <c r="C8" t="s">
         <v>17</v>
       </c>
-      <c r="D8" t="s">
-        <v>31</v>
-      </c>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
@@ -2001,290 +2754,230 @@
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C10">
-        <v>3.77</v>
+        <v>0.02</v>
       </c>
       <c r="D10" s="1">
-        <f>$C$9/C10*$C$4</f>
-        <v>0.84084880636604775</v>
+        <f t="shared" ref="D10:D12" si="1">$C$9/C10*$C$4</f>
+        <v>158.5</v>
       </c>
       <c r="E10">
-        <f t="shared" ref="E10:P10" si="1">D10*E$6</f>
-        <v>1261.2732095490717</v>
+        <f t="shared" ref="E10:P10" si="2">D10*E$6</f>
+        <v>237750</v>
       </c>
       <c r="F10">
-        <f t="shared" si="1"/>
-        <v>252254.64190981432</v>
+        <f t="shared" si="2"/>
+        <v>47550000</v>
       </c>
       <c r="G10">
-        <f t="shared" si="1"/>
-        <v>58018567.639257297</v>
+        <f t="shared" si="2"/>
+        <v>10936500000</v>
       </c>
       <c r="H10">
-        <f t="shared" si="1"/>
-        <v>13924456233.421751</v>
+        <f t="shared" si="2"/>
+        <v>2624760000000</v>
       </c>
       <c r="I10">
-        <f t="shared" si="1"/>
-        <v>3481114058355.438</v>
+        <f t="shared" si="2"/>
+        <v>656190000000000</v>
       </c>
       <c r="J10">
-        <f t="shared" si="1"/>
-        <v>905089655172413.88</v>
+        <f t="shared" si="2"/>
+        <v>1.706094E+17</v>
       </c>
       <c r="K10">
-        <f t="shared" si="1"/>
-        <v>2.4437420689655174E+17</v>
+        <f t="shared" si="2"/>
+        <v>4.6064538E+19</v>
       </c>
       <c r="L10">
-        <f t="shared" si="1"/>
-        <v>6.8424777931034485E+19</v>
+        <f t="shared" si="2"/>
+        <v>1.2898070640000001E+22</v>
       </c>
       <c r="M10">
-        <f t="shared" si="1"/>
-        <v>1.98431856E+22</v>
+        <f t="shared" si="2"/>
+        <v>3.7404404856000003E+24</v>
       </c>
       <c r="N10">
-        <f t="shared" si="1"/>
-        <v>5.9529556800000004E+24</v>
+        <f t="shared" si="2"/>
+        <v>1.1221321456800001E+27</v>
       </c>
       <c r="O10">
-        <f t="shared" si="1"/>
-        <v>1.8454162608000002E+27</v>
+        <f t="shared" si="2"/>
+        <v>3.4786096516080003E+29</v>
       </c>
       <c r="P10">
-        <f t="shared" si="1"/>
-        <v>5.9053320345600001E+29</v>
+        <f t="shared" si="2"/>
+        <v>1.1131550885145601E+32</v>
       </c>
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C11">
-        <v>0.02</v>
+        <v>3.8</v>
       </c>
       <c r="D11" s="1">
-        <f t="shared" ref="D11:D13" si="2">$C$9/C11*$C$4</f>
-        <v>158.5</v>
+        <f t="shared" si="1"/>
+        <v>0.83421052631578951</v>
       </c>
       <c r="E11">
         <f t="shared" ref="E11:P11" si="3">D11*E$6</f>
-        <v>237750</v>
+        <v>1251.3157894736842</v>
       </c>
       <c r="F11">
         <f t="shared" si="3"/>
-        <v>47550000</v>
+        <v>250263.15789473683</v>
       </c>
       <c r="G11">
         <f t="shared" si="3"/>
-        <v>10936500000</v>
+        <v>57560526.315789469</v>
       </c>
       <c r="H11">
         <f t="shared" si="3"/>
-        <v>2624760000000</v>
+        <v>13814526315.789473</v>
       </c>
       <c r="I11">
         <f t="shared" si="3"/>
-        <v>656190000000000</v>
+        <v>3453631578947.3682</v>
       </c>
       <c r="J11">
         <f t="shared" si="3"/>
-        <v>1.706094E+17</v>
+        <v>897944210526315.75</v>
       </c>
       <c r="K11">
         <f t="shared" si="3"/>
-        <v>4.6064538E+19</v>
+        <v>2.4244493684210525E+17</v>
       </c>
       <c r="L11">
         <f t="shared" si="3"/>
-        <v>1.2898070640000001E+22</v>
+        <v>6.7884582315789468E+19</v>
       </c>
       <c r="M11">
         <f t="shared" si="3"/>
-        <v>3.7404404856000003E+24</v>
+        <v>1.9686528871578947E+22</v>
       </c>
       <c r="N11">
         <f t="shared" si="3"/>
-        <v>1.1221321456800001E+27</v>
+        <v>5.9059586614736843E+24</v>
       </c>
       <c r="O11">
         <f t="shared" si="3"/>
-        <v>3.4786096516080003E+29</v>
+        <v>1.8308471850568421E+27</v>
       </c>
       <c r="P11">
         <f t="shared" si="3"/>
-        <v>1.1131550885145601E+32</v>
+        <v>5.8587109921818949E+29</v>
       </c>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C12">
-        <v>3.8</v>
+        <v>0.3</v>
       </c>
       <c r="D12" s="1">
-        <f t="shared" si="2"/>
-        <v>0.83421052631578951</v>
+        <f t="shared" si="1"/>
+        <v>10.566666666666666</v>
       </c>
       <c r="E12">
         <f t="shared" ref="E12:P12" si="4">D12*E$6</f>
-        <v>1251.3157894736842</v>
+        <v>15850</v>
       </c>
       <c r="F12">
         <f t="shared" si="4"/>
-        <v>250263.15789473683</v>
+        <v>3170000</v>
       </c>
       <c r="G12">
         <f t="shared" si="4"/>
-        <v>57560526.315789469</v>
+        <v>729100000</v>
       </c>
       <c r="H12">
         <f t="shared" si="4"/>
-        <v>13814526315.789473</v>
+        <v>174984000000</v>
       </c>
       <c r="I12">
         <f t="shared" si="4"/>
-        <v>3453631578947.3682</v>
+        <v>43746000000000</v>
       </c>
       <c r="J12">
         <f t="shared" si="4"/>
-        <v>897944210526315.75</v>
+        <v>1.137396E+16</v>
       </c>
       <c r="K12">
         <f t="shared" si="4"/>
-        <v>2.4244493684210525E+17</v>
+        <v>3.0709692E+18</v>
       </c>
       <c r="L12">
         <f t="shared" si="4"/>
-        <v>6.7884582315789468E+19</v>
+        <v>8.5987137599999993E+20</v>
       </c>
       <c r="M12">
         <f t="shared" si="4"/>
-        <v>1.9686528871578947E+22</v>
+        <v>2.4936269903999999E+23</v>
       </c>
       <c r="N12">
         <f t="shared" si="4"/>
-        <v>5.9059586614736843E+24</v>
+        <v>7.4808809711999994E+25</v>
       </c>
       <c r="O12">
         <f t="shared" si="4"/>
-        <v>1.8308471850568421E+27</v>
+        <v>2.3190731010719999E+28</v>
       </c>
       <c r="P12">
         <f t="shared" si="4"/>
-        <v>5.8587109921818949E+29</v>
-      </c>
-    </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13">
-        <v>0.3</v>
-      </c>
-      <c r="D13" s="1">
-        <f t="shared" si="2"/>
-        <v>10.566666666666666</v>
-      </c>
-      <c r="E13">
-        <f t="shared" ref="E13:P13" si="5">D13*E$6</f>
-        <v>15850</v>
-      </c>
-      <c r="F13">
-        <f t="shared" si="5"/>
-        <v>3170000</v>
-      </c>
-      <c r="G13">
-        <f t="shared" si="5"/>
-        <v>729100000</v>
-      </c>
-      <c r="H13">
-        <f t="shared" si="5"/>
-        <v>174984000000</v>
-      </c>
-      <c r="I13">
-        <f t="shared" si="5"/>
-        <v>43746000000000</v>
-      </c>
-      <c r="J13">
-        <f t="shared" si="5"/>
-        <v>1.137396E+16</v>
-      </c>
-      <c r="K13">
-        <f t="shared" si="5"/>
-        <v>3.0709692E+18</v>
-      </c>
-      <c r="L13">
-        <f t="shared" si="5"/>
-        <v>8.5987137599999993E+20</v>
-      </c>
-      <c r="M13">
-        <f t="shared" si="5"/>
-        <v>2.4936269903999999E+23</v>
-      </c>
-      <c r="N13">
-        <f t="shared" si="5"/>
-        <v>7.4808809711999994E+25</v>
-      </c>
-      <c r="O13">
-        <f t="shared" si="5"/>
-        <v>2.3190731010719999E+28</v>
-      </c>
-      <c r="P13">
-        <f t="shared" si="5"/>
         <v>7.4210339234303991E+30</v>
       </c>
     </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" t="s">
+        <v>33</v>
+      </c>
+    </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19">
+        <v>3.77</v>
+      </c>
+      <c r="E19" t="s">
+        <v>35</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20">
+      <c r="C20" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20">
         <v>1</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D20">
-        <v>3.77</v>
       </c>
       <c r="E20" t="s">
         <v>36</v>
       </c>
       <c r="F20" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G20" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>35</v>
-      </c>
-      <c r="C21" t="s">
-        <v>33</v>
-      </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-      <c r="E21" t="s">
-        <v>37</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="G21" t="s">
+      <c r="I20" t="s">
         <v>40</v>
-      </c>
-      <c r="I21" t="s">
-        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -2294,10 +2987,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:J9"/>
+  <dimension ref="B1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2307,7 +3000,7 @@
   <sheetData>
     <row r="1" spans="2:10" x14ac:dyDescent="0.25">
       <c r="I1" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="J1" s="12">
         <v>0.47916666666666669</v>
@@ -2315,38 +3008,43 @@
     </row>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" s="13">
         <f ca="1">NOW()</f>
-        <v>43399.595361111111</v>
+        <v>43399.819546064813</v>
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>98</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>101</v>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -2359,36 +3057,39 @@
   <dimension ref="B1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10" x14ac:dyDescent="0.25">
       <c r="I1" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="J1" s="12"/>
     </row>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" s="13"/>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="3" t="s">
-        <v>116</v>
+      <c r="I3" s="12">
+        <v>0.49305555555555558</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="3" t="s">
-        <v>117</v>
+      <c r="B6" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -2401,39 +3102,36 @@
   <dimension ref="B1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="84.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10" x14ac:dyDescent="0.25">
       <c r="I1" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="J1" s="12"/>
     </row>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" s="13"/>
-      <c r="I3" s="12">
-        <v>0.49305555555555558</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>106</v>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>107</v>
+      <c r="B6" s="3" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -2456,13 +3154,13 @@
   <sheetData>
     <row r="1" spans="2:10" x14ac:dyDescent="0.25">
       <c r="I1" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="J1" s="12"/>
     </row>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
@@ -2473,7 +3171,7 @@
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/Material de Acompanhamento_v3.xlsx
+++ b/Material de Acompanhamento_v3.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9630" tabRatio="673" activeTab="15"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9630" tabRatio="673" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="geral" sheetId="17" r:id="rId1"/>
@@ -17,17 +17,18 @@
     <sheet name="22" sheetId="2" r:id="rId3"/>
     <sheet name="23" sheetId="4" r:id="rId4"/>
     <sheet name="24" sheetId="3" r:id="rId5"/>
-    <sheet name="28 " sheetId="10" r:id="rId6"/>
-    <sheet name="29" sheetId="12" r:id="rId7"/>
-    <sheet name="30" sheetId="11" r:id="rId8"/>
-    <sheet name="31" sheetId="13" r:id="rId9"/>
-    <sheet name="33" sheetId="6" r:id="rId10"/>
-    <sheet name="35" sheetId="5" r:id="rId11"/>
-    <sheet name="37" sheetId="7" r:id="rId12"/>
+    <sheet name="31" sheetId="13" r:id="rId6"/>
+    <sheet name="37" sheetId="7" r:id="rId7"/>
+    <sheet name="33" sheetId="6" r:id="rId8"/>
+    <sheet name="28 " sheetId="10" r:id="rId9"/>
+    <sheet name="29" sheetId="12" r:id="rId10"/>
+    <sheet name="30" sheetId="11" r:id="rId11"/>
+    <sheet name="36" sheetId="5" r:id="rId12"/>
     <sheet name="40 " sheetId="8" r:id="rId13"/>
     <sheet name="41" sheetId="9" r:id="rId14"/>
     <sheet name="44" sheetId="14" r:id="rId15"/>
     <sheet name="46" sheetId="15" r:id="rId16"/>
+    <sheet name="47" sheetId="18" r:id="rId17"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="175">
   <si>
     <t>Lista de Compras</t>
   </si>
@@ -586,6 +587,9 @@
   </si>
   <si>
     <t>Duração</t>
+  </si>
+  <si>
+    <t>Fazer Exercicio do Procv usando Banco de dados Forncedor x Centro de Custo</t>
   </si>
 </sst>
 </file>
@@ -1773,68 +1777,42 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G11"/>
+  <dimension ref="B1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="43.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1" s="16" t="s">
-        <v>152</v>
-      </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="F1" s="14"/>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="G3" s="12">
-        <v>0.5625</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="I1" t="s">
+        <v>98</v>
+      </c>
+      <c r="J1" s="12"/>
+    </row>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B2" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B3" s="13"/>
+      <c r="I3" s="12">
+        <v>0.49305555555555558</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1844,10 +1822,52 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:J6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="84.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="I1" t="s">
+        <v>98</v>
+      </c>
+      <c r="J1" s="12"/>
+    </row>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B2" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B3" s="13"/>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2072,137 +2092,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:K30"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="27" width="6.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B2" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="K2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="K3" s="12">
-        <v>0.63194444444444442</v>
-      </c>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B4" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B12" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B15">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B16">
-        <v>9.6666666666666696</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B17">
-        <v>12.6666666666667</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B18">
-        <v>15.6666666666667</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B19">
-        <v>18.6666666666667</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B20">
-        <v>21.6666666666667</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B21">
-        <v>24.6666666666667</v>
-      </c>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B22">
-        <v>27.6666666666667</v>
-      </c>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B25" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="15"/>
-      <c r="I30" s="15"/>
-      <c r="J30" s="15"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2246,7 +2141,7 @@
   <dimension ref="B2:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2342,30 +2237,53 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:B6"/>
   <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="92.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>117</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -2420,6 +2338,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2518,10 +2439,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
   <dimension ref="B2:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2578,10 +2502,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
   <dimension ref="B1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2987,10 +2914,255 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
+  <dimension ref="B1:J5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="I1" t="s">
+        <v>101</v>
+      </c>
+      <c r="J1" s="12"/>
+    </row>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B2" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B3" s="13"/>
+      <c r="I3" s="12">
+        <v>0.50347222222222221</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="B2:K30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="27" width="6.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B2" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="K2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K3" s="12">
+        <v>0.63194444444444442</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B4" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B12" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>9.6666666666666696</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>12.6666666666667</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>15.6666666666667</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>18.6666666666667</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>21.6666666666667</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>24.6666666666667</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>27.6666666666667</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B25" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="15"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="B1:G11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="F1" s="14"/>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="G3" s="12">
+        <v>0.5625</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3014,7 +3186,7 @@
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" s="13">
         <f ca="1">NOW()</f>
-        <v>43399.819546064813</v>
+        <v>43403.595805439814</v>
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
@@ -3045,133 +3217,6 @@
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>94</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:J6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="43.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="I1" t="s">
-        <v>98</v>
-      </c>
-      <c r="J1" s="12"/>
-    </row>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="13"/>
-      <c r="I3" s="12">
-        <v>0.49305555555555558</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:J6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="84.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="I1" t="s">
-        <v>98</v>
-      </c>
-      <c r="J1" s="12"/>
-    </row>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="13"/>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:J5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="I1" t="s">
-        <v>101</v>
-      </c>
-      <c r="J1" s="12"/>
-    </row>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="13"/>
-      <c r="I3" s="12">
-        <v>0.50347222222222221</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>103</v>
       </c>
     </row>
   </sheetData>
